--- a/spliced/falling/2023-03-28_19-35-57/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-35-57/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0345138870179653</v>
+        <v>-0.0310014113783836</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1418734490871429</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0546724386513233</v>
+        <v>0.001527163083665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.032223142683506</v>
+        <v>-0.0077885319478809</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3484986126422882</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1937969923019409</v>
+        <v>-0.0400116741657257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1188132911920547</v>
+        <v>-0.0332921557128429</v>
       </c>
       <c r="B4" t="n">
-        <v>0.318566232919693</v>
+        <v>-0.0244346093386411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0813977941870689</v>
+        <v>-0.0705549344420433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2278527319431305</v>
+        <v>0.0039706239476799</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3268128931522369</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1646281778812408</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0331394411623477</v>
+        <v>-0.0345138870179653</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1012509167194366</v>
+        <v>0.1418734490871429</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09605856239795681</v>
+        <v>0.0546724386513233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7597636580467224</v>
+        <v>-0.032223142683506</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0694859251379966</v>
+        <v>0.3484986126422882</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0531452745199203</v>
+        <v>0.1937969923019409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3869831264019012</v>
+        <v>-0.1188132911920547</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.697414636611938</v>
+        <v>0.318566232919693</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.992184281349182</v>
+        <v>0.0813977941870689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.806633949279785</v>
+        <v>-0.2278527319431305</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.700621604919434</v>
+        <v>0.3268128931522369</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.564690589904785</v>
+        <v>-0.1646281778812408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2874121069908142</v>
+        <v>0.0331394411623477</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7710646390914917</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="C10" t="n">
-        <v>1.056185960769653</v>
+        <v>-0.09605856239795681</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.7597636580467224</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4549418985843658</v>
+        <v>-0.0694859251379966</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-0.0531452745199203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4208861589431762</v>
+        <v>-0.3869831264019012</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4367686510086059</v>
+        <v>-3.697414636611938</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2874121069908142</v>
+        <v>-1.992184281349182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6397286057472229</v>
+        <v>-1.806633949279785</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3787364661693573</v>
+        <v>-3.700621604919434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7061602473258972</v>
+        <v>-4.564690589904785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0201585534960031</v>
+        <v>-0.2874121069908142</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1424843221902847</v>
+        <v>-0.7710646390914917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6214026808738708</v>
+        <v>1.056185960769653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.06688974797725671</v>
+        <v>-0.1162171140313148</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08704829961061469</v>
+        <v>0.4549418985843658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6957755088806152</v>
+        <v>-0.4101960062980652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.00167987938039</v>
+        <v>-0.4208861589431762</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9256135821342468</v>
+        <v>-0.4367686510086059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4283692538738251</v>
+        <v>0.2874121069908142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6487388610839844</v>
+        <v>-0.6397286057472229</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8439103364944458</v>
+        <v>-0.3787364661693573</v>
       </c>
       <c r="C17" t="n">
-        <v>0.693637490272522</v>
+        <v>0.7061602473258972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0458148941397666</v>
+        <v>-0.0201585534960031</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3787364661693573</v>
+        <v>-0.1424843221902847</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1919644027948379</v>
+        <v>0.6214026808738708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8376489877700806</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="B19" t="n">
-        <v>1.98836636543274</v>
+        <v>0.08704829961061469</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.266184538602829</v>
+        <v>0.6957755088806152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.477683067321777</v>
+        <v>-0.00167987938039</v>
       </c>
       <c r="B20" t="n">
-        <v>1.546558141708374</v>
+        <v>0.9256135821342468</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.000902652740478</v>
+        <v>0.4283692538738251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.6487388610839844</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8439103364944458</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.693637490272522</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0458148941397666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3787364661693573</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1919644027948379</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.8376489877700806</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.98836636543274</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.266184538602829</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.477683067321777</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.546558141708374</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.000902652740478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>-0.024892758578062</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>-0.0316122770309448</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>-0.06902777403593061</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1531744599342346</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9390525817871094</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3572034537792206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1224784851074218</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1852448880672454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0273362193256616</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1533271819353103</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1511891484260559</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0138971842825412</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0740674138069152</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.052381694316864</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.102472648024559</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0630718395113945</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0003054326225537</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0174096599221229</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0529925599694252</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0123700210824608</v>
       </c>
     </row>
   </sheetData>
